--- a/killTheDummy_Documents/Microsoft_Office/Testprotocol_example.xlsx
+++ b/killTheDummy_Documents/Microsoft_Office/Testprotocol_example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="55">
   <si>
     <t>Version</t>
   </si>
@@ -83,9 +83,6 @@
     <t>killTheDummy</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Raffael Gyr</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>NF</t>
   </si>
   <si>
-    <t>somehow the "5" doesn't get split from the String correctly</t>
-  </si>
-  <si>
     <t>player has died</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>info about your attack</t>
   </si>
   <si>
-    <t>HF</t>
-  </si>
-  <si>
     <t>you can't get info about f because it doesn't exist</t>
   </si>
   <si>
@@ -195,6 +186,9 @@
   </si>
   <si>
     <t>not really (just make it faster)</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
 </sst>
 </file>
@@ -218,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,22 +302,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -346,18 +325,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -674,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE31C68-10DE-4D59-B19E-72933AA70625}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,10 +676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
@@ -700,815 +687,805 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="B28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="B31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="B35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>19</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="B41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>22</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>23</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>24</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>25</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>26</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>27</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>28</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>29</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
-        <v>30</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>31</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>32</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="14" t="s">
+      <c r="D41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>33</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>34</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>35</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7" t="s">
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7" t="s">
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="7"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="7"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E31:H31"/>
+  <mergeCells count="23">
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D60:E60"/>
@@ -1523,6 +1500,15 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
